--- a/crawl_results/wellesley.xlsx
+++ b/crawl_results/wellesley.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -511,7 +511,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">African American History: From the Slave Trade to the Civil War </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -546,7 +546,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Introduction to African Politics </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -581,7 +581,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">New World Afro-Atlantic Religions </t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">The Harlem Renaissance </t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Seminar: The Politics of Chocolates and Other Foods </t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -686,7 +686,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Africans of the Diaspora </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -721,7 +721,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Seminar: No Moral High Ground, A History of Slavery and Racism in the North </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -756,7 +756,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Asian American Fiction </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -791,7 +791,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Ethnic Studies: Key Concepts, Theories, and Methods </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -826,7 +826,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Religion in America </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -861,7 +861,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Life in the Big City: Urban Studies and Policy </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -896,7 +896,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">From Zumba to Taco Trucks: Consuming Latina/o Cultures </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -931,7 +931,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Salsa and Ketchup: How immigration is Changing the US and the World </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -966,7 +966,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Poetics of the Body </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1001,7 +1001,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Racial Regimes in the United States and Beyond </t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1036,7 +1036,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Gender and Race in Westerns: Rainbow Cowboys (and Girls) </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Rainbow Republic: American Queer Culture from Walt Whitman to Lady Gaga </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1106,7 +1106,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Asian/American Politics of Beauty </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1141,7 +1141,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Conservatism in America </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1176,7 +1176,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Willa Cather </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1211,7 +1211,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Introduction to Cultural and Social Anthropology </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1246,7 +1246,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Introduction to Archaeology </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1281,7 +1281,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Anthropology Methods and Project Design </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Forensic Anthropology </t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Epidemics and Pandemics: Biopolitics, and disparities in historical and cultural perspective </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Divine Madness: Dreams, Visions, Hallucinations </t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">The Vulnerable Body: Anthropological Understandings </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1456,7 +1456,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">The Archaeology of Human Sacrifice: A Cross-Cultural Comparison of the Politics of Death </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">True Stories: Ethnographic Writing for the Social Sciences and Humanities </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1526,7 +1526,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Advanced Theory in Anthropology </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1561,7 +1561,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Human Biology and Society </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1596,7 +1596,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Seminar: Doing Well, Doing Good? The Political Lives of NGOs </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1631,7 +1631,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Elementary Arabic </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1666,7 +1666,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Elementary Arabic </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1701,7 +1701,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Intermediate Arabic </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1736,7 +1736,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Intermediate Arabic </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1771,7 +1771,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Advanced Arabic I </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1806,7 +1806,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">The Power of Images: An Introduction to Art and its Histories </t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1841,7 +1841,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">The Power of Images: An Introduction to Art and its Histories </t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1876,7 +1876,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">The Power of Images: An Introduction to Art and its Histories </t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">The Power of Images: An Introduction to Art and its Histories </t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1946,7 +1946,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">American Art, Architecture, and Design: 1600-1950 </t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1981,7 +1981,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Modernism and Islamic Art </t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2016,7 +2016,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">History of Photography: From Invention to Media Age </t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2051,7 +2051,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Latin American Art </t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2086,7 +2086,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Art and Architecture of South Asia </t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2121,7 +2121,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Egyptian and Nubian Art and Archaeology </t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2156,7 +2156,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Art, Patronage, and Society in Sixteenth-Century Italy </t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2191,7 +2191,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Chinese Painting: Theories, Masters, and Principles </t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2226,7 +2226,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Twentieth-Century Chinese Art </t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2261,7 +2261,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Seminar: Art and Empire in the Long Nineteenth Century </t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Art and Plague in Early Modern Europe </t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2331,7 +2331,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Latin American Art </t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Seminar: Roman Monuments: Memory and Metamorphosis </t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2401,7 +2401,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Drawing I </t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2436,7 +2436,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Drawing I </t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2471,7 +2471,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Photography I </t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Two-Dimensional Design </t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2541,7 +2541,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Introduction to Book Studies </t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2576,7 +2576,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Introduction to the Moving Image </t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Photography II: The Digital/Analog Rift </t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2646,7 +2646,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Spatial Investigations </t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2681,7 +2681,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Life Drawing </t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2716,7 +2716,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Alternative Print Methods: Hand and Machine </t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2751,7 +2751,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Dynamic Interface Design </t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2786,7 +2786,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Advanced Sculptural Practices </t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2821,7 +2821,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Advanced Drawing </t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2856,7 +2856,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Advanced Independent Senior Projects </t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2891,7 +2891,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Advanced Video Production </t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2926,7 +2926,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Life in the Universe </t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2961,7 +2961,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Exploring the Cosmos: Introductory Astronomy w/Lab </t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2996,7 +2996,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Exploring the Cosmos: Introductory Astronomy w/Lab </t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3031,7 +3031,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Exploring the Cosmos: Introductory Astronomy w/Lab </t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3066,7 +3066,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Astronomical Techniques with Laboratory </t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3101,7 +3101,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Planetary Atmospheres and Climates </t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3136,7 +3136,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Genetics with Laboratory </t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3171,7 +3171,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Genetics with Laboratory </t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -3206,7 +3206,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Genetics with Laboratory </t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -3241,7 +3241,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Genetics with Laboratory </t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3276,7 +3276,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Genetics with Laboratory </t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -3311,7 +3311,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Genetics with Laboratory </t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3346,7 +3346,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Fundamentals of Biochemistry with Laboratory </t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3381,7 +3381,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Fundamentals of Biochemistry with Laboratory </t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -3416,7 +3416,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Fundamentals of Biochemistry with Laboratory </t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3451,7 +3451,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Fundamentals of Biochemistry with Laboratory </t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3486,7 +3486,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Fundamentals of Biochemistry with Laboratory </t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -3517,7 +3517,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Principles of Biochemistry </t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3552,7 +3552,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Principles of Biochemistry </t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3587,7 +3587,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Advanced Seminar in Biochemistry </t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -3622,7 +3622,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Human Biology with Laboratory </t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -3657,7 +3657,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Human Biology with Laboratory </t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3692,7 +3692,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Human Biology with Laboratory </t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3727,7 +3727,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Introductory Cellular and Molecular Biology with Laboratory </t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -3762,7 +3762,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Introductory Cellular and Molecular Biology with Laboratory </t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -3797,7 +3797,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Introductory Cellular and Molecular Biology with Laboratory </t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3832,7 +3832,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Introductory Cellular and Molecular Biology with Laboratory </t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -3867,7 +3867,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Introductory Cellular and Molecular Biology with Laboratory </t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -3902,7 +3902,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Introductory Cellular and Molecular Biology with Laboratory </t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -3937,7 +3937,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Introductory Cellular and Molecular Biology with Laboratory </t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -3972,7 +3972,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Introductory Cellular and Molecular Biology with Laboratory </t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -4007,7 +4007,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Introductory Organismal Biology with Laboratory </t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -4042,7 +4042,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Introductory Organismal Biology with Laboratory </t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -4077,7 +4077,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Introductory Organismal Biology with Laboratory </t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -4112,7 +4112,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Introductory Organismal Biology with Laboratory </t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -4147,7 +4147,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Introductory Organismal Biology with Laboratory </t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -4182,7 +4182,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Introductory Organismal Biology with Laboratory </t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -4217,7 +4217,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Introductory Organismal Biology with Laboratory </t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -4252,7 +4252,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Introductory Organismal Biology with Laboratory </t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -4287,7 +4287,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Introductory Organismal Biology with Laboratory </t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -4322,7 +4322,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Introductory Organismal Biology with Laboratory </t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -4357,7 +4357,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">First-Year Seminar: Exploration of Cellular and Molecular Biology with Laboratory </t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -4392,7 +4392,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">First-Year Seminar: Exploration of Cellular and Molecular Biology with Laboratory </t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -4427,7 +4427,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Exploration of Organismal Biology with Laboratory </t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -4462,7 +4462,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Exploration of Organismal Biology with Laboratory </t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -4497,7 +4497,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Exploration of Organismal Biology with Laboratory </t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -4532,7 +4532,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Exploration of Organismal Biology with Laboratory </t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -4567,7 +4567,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Exploration of Organismal Biology with Laboratory </t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -4602,7 +4602,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Exploration of Organismal Biology with Laboratory </t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -4637,7 +4637,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">First-Year Seminar: Exploration of Organismal Biology with Laboratory </t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -4672,7 +4672,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">First-Year Seminar: Exploration of Organismal Biology with Laboratory </t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -4707,7 +4707,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Fundamentals of Chemistry and Molecular/Cellular Biology with Lab: An Integrated Approach </t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -4742,7 +4742,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Fundamentals of Chemistry and Molecular/Cellular Biology with Lab: An Integrated Approach </t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -4777,7 +4777,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Fundamentals of Chemistry and Molecular/Cellular Biology with Lab: An Integrated Approach </t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -4812,7 +4812,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Ecology with Laboratory </t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -4847,7 +4847,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Ecology with Laboratory </t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -4882,7 +4882,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Ecology with Laboratory </t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -4917,7 +4917,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Comparative Physiology and Anatomy of Vertebrates with Laboratory </t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -4952,7 +4952,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Comparative Physiology and Anatomy of Vertebrates with Laboratory </t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -4987,7 +4987,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Comparative Physiology and Anatomy of Vertebrates with Laboratory </t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -5022,7 +5022,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Marine Biology with Laboratory </t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -5057,7 +5057,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Marine Biology with Laboratory </t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -5092,7 +5092,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Genetics with Laboratory </t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -5127,7 +5127,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Genetics with Laboratory </t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -5162,7 +5162,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Genetics with Laboratory </t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -5197,7 +5197,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Genetics with Laboratory </t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -5232,7 +5232,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Genetics with Laboratory </t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -5267,7 +5267,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Genetics with Laboratory </t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -5302,7 +5302,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Evolutionary Developmental Biology with Laboratory </t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -5337,7 +5337,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Evolutionary Developmental Biology with Laboratory </t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -5372,7 +5372,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Neuroendocrinology </t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -5407,7 +5407,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Seminar: Current Topics in Ecology </t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -5442,7 +5442,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Biological Microscopy with Laboratory </t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -5477,7 +5477,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Biological Microscopy with Laboratory </t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -5512,7 +5512,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Calderwood Seminar in Public Writing: Biology in the News </t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -5547,7 +5547,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Introduction to the Moving Image </t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -5582,7 +5582,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Photography I </t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -5617,7 +5617,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Technologies of Cinema and Media </t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -5652,7 +5652,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Chinese Cinema (in English) </t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -5687,7 +5687,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">History of Photography: From Invention to Media Age </t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -5722,7 +5722,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Writing for Television </t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -5757,7 +5757,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Theories of Media From Photography to the Internet </t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -5792,7 +5792,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Decolonizing Film History </t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -5827,7 +5827,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">American Jews and the Media </t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -5862,7 +5862,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">The Art of Screenwriting </t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -5897,7 +5897,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Photography II: The Digital/Analog Rift </t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -5932,7 +5932,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Gendering the Bronze Screen: Representations of Chicanas/Latinas in Film </t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -5967,7 +5967,7 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Dynamic Interface Design </t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -6002,7 +6002,7 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Seminar: Media Archeology </t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -6037,7 +6037,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Advanced Video Production </t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -6072,7 +6072,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Fundamentals of Chemistry with Laboratory </t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -6107,7 +6107,7 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Fundamentals of Chemistry with Laboratory </t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -6142,7 +6142,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Fundamentals of Chemistry with Laboratory </t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -6177,7 +6177,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Fundamentals of Chemistry with Laboratory </t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -6212,7 +6212,7 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Fundamentals of Chemistry with Laboratory </t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -6247,7 +6247,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Fundamentals of Chemistry with Laboratory </t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -6282,7 +6282,7 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Fundamentals of Chemistry with Laboratory </t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -6317,7 +6317,7 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Fundamentals of Chemistry with Laboratory </t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -6352,7 +6352,7 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Fundamentals of Chemistry with Laboratory </t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -6387,7 +6387,7 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Fundamentals of Chemistry with Laboratory </t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -6422,7 +6422,7 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Fundamentals of Chemistry with Laboratory </t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -6457,7 +6457,7 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Fundamentals of Chemistry and Molecular/Cellular Biology with Lab: An Integrated Approach </t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -6492,7 +6492,7 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Intensive Introductory Chemistry with Laboratory </t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -6527,7 +6527,7 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Intensive Introductory Chemistry with Laboratory </t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -6562,7 +6562,7 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Intensive Introductory Chemistry with Laboratory </t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -6597,7 +6597,7 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Chemical Analysis and Equilibrium with Laboratory </t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -6632,7 +6632,7 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Chemical Analysis and Equilibrium with Laboratory </t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -6667,7 +6667,7 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Chemical Analysis and Equilibrium with Laboratory </t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -6702,7 +6702,7 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Organic Chemistry I with Laboratory </t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -6737,7 +6737,7 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Organic Chemistry I with Laboratory </t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -6772,7 +6772,7 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Organic Chemistry I with Laboratory </t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -6807,7 +6807,7 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Organic Chemistry I with Laboratory </t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -6842,7 +6842,7 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Organic Chemistry I with Laboratory </t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -6877,7 +6877,7 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Organic Chemistry I with Laboratory </t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -6912,7 +6912,7 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Organic Chemistry I with Laboratory </t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -6947,7 +6947,7 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Organic Chemistry I with Laboratory </t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -6982,7 +6982,7 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Organic Chemistry I with Laboratory </t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -7017,7 +7017,7 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Organic Chemistry I with Laboratory </t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -7052,7 +7052,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Organic Chemistry II with Laboratory </t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -7087,7 +7087,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Organic Chemistry II with Laboratory </t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -7122,7 +7122,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Organic Chemistry II with Laboratory </t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -7157,7 +7157,7 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Fundamentals of Biochemistry with Laboratory </t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Fundamentals of Biochemistry with Laboratory </t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -7227,7 +7227,7 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Fundamentals of Biochemistry with Laboratory </t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -7262,7 +7262,7 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Fundamentals of Biochemistry with Laboratory </t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -7297,7 +7297,7 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Fundamentals of Biochemistry with Laboratory </t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -7328,7 +7328,7 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Principles of Biochemistry </t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -7363,7 +7363,7 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Principles of Biochemistry </t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -7398,7 +7398,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Seminar: Aquatic Chemistry </t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -7433,7 +7433,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Advanced Seminar in Biochemistry </t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -7468,7 +7468,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Physical Chemistry I with Laboratory </t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -7503,7 +7503,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Physical Chemistry I with Laboratory </t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -7538,7 +7538,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Physical Chemistry I with Laboratory </t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -7573,7 +7573,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Physical Chemistry I with Laboratory </t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -7608,7 +7608,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Analytical Chemistry with Laboratory </t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -7643,7 +7643,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Analytical Chemistry with Laboratory </t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -7678,7 +7678,7 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Beginning Chinese I </t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -7713,7 +7713,7 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Advanced Beginning Chinese I </t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -7748,7 +7748,7 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Intermediate Chinese I </t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -7783,7 +7783,7 @@
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Advanced Intermediate Chinese I </t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -7818,7 +7818,7 @@
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Chinese Cinema (in English) </t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -7853,7 +7853,7 @@
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Advanced Chinese I </t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -7888,7 +7888,7 @@
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Advanced Reading in Twentieth-Century Literature and Culture </t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -7923,7 +7923,7 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Introduction to Archaeology </t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -7958,7 +7958,7 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Greek Drama Then and Now </t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -7993,7 +7993,7 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Greek and Roman Religion </t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -8028,7 +8028,7 @@
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Greek Drama Then and Now </t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -8063,7 +8063,7 @@
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Greek and Roman Religion </t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -8098,7 +8098,7 @@
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">What is World Literature? </t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -8133,7 +8133,7 @@
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">The Color of Green Literature: Writing in the Face of Environmental Collapse </t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -8168,7 +8168,7 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Computer Programming and Problem Solving </t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -8203,7 +8203,7 @@
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Computer Programming and Problem Solving </t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -8238,7 +8238,7 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Computer Programming and Problem Solving </t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -8273,7 +8273,7 @@
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Computer Programming and Problem Solving </t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -8308,7 +8308,7 @@
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Computer Programming and Problem Solving </t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -8343,7 +8343,7 @@
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Computer Programming and Problem Solving </t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -8378,7 +8378,7 @@
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Computer Programming and Problem Solving </t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -8413,7 +8413,7 @@
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Computer Programming and Problem Solving </t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -8448,7 +8448,7 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Computer Programming and Problem Solving </t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -8483,7 +8483,7 @@
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Computer Programming and Problem Solving </t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -8518,7 +8518,7 @@
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Computer Programming and Problem Solving </t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -8553,7 +8553,7 @@
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Computer Programming and Problem Solving </t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -8588,7 +8588,7 @@
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Computing for the Socio-Techno Web </t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -8623,7 +8623,7 @@
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Computing for the Socio-Techno Web </t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -8658,7 +8658,7 @@
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Computing for the Socio-Techno Web </t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -8693,7 +8693,7 @@
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Intro to Game Design </t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -8728,7 +8728,7 @@
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Computer Music </t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -8763,7 +8763,7 @@
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Introduction to Front-End Web Development </t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -8798,7 +8798,7 @@
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Human-Computer Interaction </t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -8833,7 +8833,7 @@
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Data Structures </t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -8868,7 +8868,7 @@
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Data Structures </t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -8903,7 +8903,7 @@
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Data Structures </t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -8938,7 +8938,7 @@
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Data Structures </t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -8973,7 +8973,7 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Data Structures </t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -9008,7 +9008,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Data Structures </t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -9043,7 +9043,7 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Data Structures </t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -9078,7 +9078,7 @@
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Fundamental Algorithms </t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -9113,7 +9113,7 @@
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Data, Analytics, and Visualization </t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -9148,7 +9148,7 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Theory of Computation </t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -9183,7 +9183,7 @@
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Foundations of Computer Systems with Laboratory </t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -9218,7 +9218,7 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Foundations of Computer Systems with Laboratory </t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -9253,7 +9253,7 @@
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Foundations of Computer Systems with Laboratory </t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -9288,7 +9288,7 @@
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Foundations of Computer Systems with Laboratory </t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -9323,7 +9323,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Foundations of Computer Systems with Laboratory </t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -9358,7 +9358,7 @@
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Computer Networks </t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -9393,7 +9393,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Principles of Programming Languages </t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -9428,7 +9428,7 @@
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Databases with Web Interfaces </t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -9463,7 +9463,7 @@
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Machine Learning </t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -9498,7 +9498,7 @@
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Mobile App Development </t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -9533,7 +9533,7 @@
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Extended Reality </t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -9568,7 +9568,7 @@
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Advanced Algorithms </t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -9603,7 +9603,7 @@
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Visual Processing by Computer and Biological Vision Systems </t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -9638,7 +9638,7 @@
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Seminar: Language, Nationalism, and Identity in East Asia (In English) </t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -9673,7 +9673,7 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Principles of Microeconomics </t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -9708,7 +9708,7 @@
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Principles of Microeconomics </t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -9743,7 +9743,7 @@
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Principles of Microeconomics </t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -9778,7 +9778,7 @@
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Principles of Microeconomics </t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -9813,7 +9813,7 @@
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Principles of Microeconomics </t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -9848,7 +9848,7 @@
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Principles of Microeconomics </t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -9883,7 +9883,7 @@
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Principles of Macroeconomics </t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -9918,7 +9918,7 @@
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Principles of Macroeconomics </t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -9953,7 +9953,7 @@
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Principles of Macroeconomics </t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -9988,7 +9988,7 @@
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Introduction to Probability and Statistical Methods </t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -10023,7 +10023,7 @@
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Introduction to Probability and Statistical Methods </t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -10058,7 +10058,7 @@
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Introduction to Probability and Statistical Methods </t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -10093,7 +10093,7 @@
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Intermediate Microeconomic Analysis </t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -10128,7 +10128,7 @@
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Intermediate Microeconomic Analysis </t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -10163,7 +10163,7 @@
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Intermediate Microeconomic Analysis </t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -10198,7 +10198,7 @@
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Intermediate Macroeconomic Analysis </t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -10233,7 +10233,7 @@
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Intermediate Macroeconomic Analysis </t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -10268,7 +10268,7 @@
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Econometrics </t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -10303,7 +10303,7 @@
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Econometrics </t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -10338,7 +10338,7 @@
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">International Finance and Macroeconomic Policy </t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -10373,7 +10373,7 @@
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Development Economics </t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -10408,7 +10408,7 @@
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Women in the Economy </t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -10443,7 +10443,7 @@
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Microeconomics of Pandemics </t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -10478,7 +10478,7 @@
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Poverty and Inequality in Latin America </t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -10513,7 +10513,7 @@
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Advanced Microeconomic Analysis </t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -10548,7 +10548,7 @@
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">International Macroeconomics </t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -10583,7 +10583,7 @@
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Advanced International Trade </t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -10618,7 +10618,7 @@
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Finance Theory and Applications </t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -10653,7 +10653,7 @@
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Behavioral Economics </t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -10688,7 +10688,7 @@
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Seminar: Advanced Economics of Education </t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -10723,7 +10723,7 @@
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">The Economics of Law, Policy and Inequality </t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
@@ -10758,7 +10758,7 @@
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Macroeconomics in Practice </t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -10793,7 +10793,7 @@
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Economics Research Seminar </t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -10828,7 +10828,7 @@
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">First-Year Seminar: Lessons of Childhood: Representations of Difference in Children's Media </t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -10863,7 +10863,7 @@
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Schools and Society </t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -10898,7 +10898,7 @@
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Reimagining Youth: Exploring the Role of Family, Community and Society </t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
@@ -10933,7 +10933,7 @@
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Understanding and Improving Schools </t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
@@ -10968,7 +10968,7 @@
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Teaching and Curriculum in Middle School and High School </t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
@@ -11003,7 +11003,7 @@
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Curriculum and Instruction in Elementary Education </t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -11038,7 +11038,7 @@
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Social Emotional Learning and Development: Theoretically informed Practice for K-12 education SEM </t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
@@ -11073,7 +11073,7 @@
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Learning and Teaching Mathematics: Content, Cognition, and Pedagogy </t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
@@ -11108,7 +11108,7 @@
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Seminar: Educating English Language Learners </t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
@@ -11143,7 +11143,7 @@
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Calderwood Seminar in Public Writing: Social Technologies &amp; Adolescent Development </t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
@@ -11178,7 +11178,7 @@
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Seminar: Ethnography in Education: Race, Migration, and Borders </t>
         </is>
       </c>
       <c r="D308" t="inlineStr">
@@ -11213,7 +11213,7 @@
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Introduction to Shakespeare </t>
         </is>
       </c>
       <c r="D309" t="inlineStr">
@@ -11248,7 +11248,7 @@
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Asian American Fiction </t>
         </is>
       </c>
       <c r="D310" t="inlineStr">
@@ -11283,7 +11283,7 @@
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Women* Write Weird Fiction </t>
         </is>
       </c>
       <c r="D311" t="inlineStr">
@@ -11318,7 +11318,7 @@
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Critical Interpretation </t>
         </is>
       </c>
       <c r="D312" t="inlineStr">
@@ -11353,7 +11353,7 @@
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">First-Year Seminar: Creating Memory </t>
         </is>
       </c>
       <c r="D313" t="inlineStr">
@@ -11388,7 +11388,7 @@
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Poetry </t>
         </is>
       </c>
       <c r="D314" t="inlineStr">
@@ -11423,7 +11423,7 @@
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Short Narrative </t>
         </is>
       </c>
       <c r="D315" t="inlineStr">
@@ -11458,7 +11458,7 @@
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">The Art of Screenwriting </t>
         </is>
       </c>
       <c r="D316" t="inlineStr">
@@ -11493,7 +11493,7 @@
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t>Non-Fiction Writing Tpc: Memoir</t>
         </is>
       </c>
       <c r="D317" t="inlineStr">
@@ -11528,7 +11528,7 @@
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Writing for Television </t>
         </is>
       </c>
       <c r="D318" t="inlineStr">
@@ -11563,7 +11563,7 @@
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">History of the English Language </t>
         </is>
       </c>
       <c r="D319" t="inlineStr">
@@ -11598,7 +11598,7 @@
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Chaucer </t>
         </is>
       </c>
       <c r="D320" t="inlineStr">
@@ -11633,7 +11633,7 @@
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Happiness </t>
         </is>
       </c>
       <c r="D321" t="inlineStr">
@@ -11668,7 +11668,7 @@
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Shakespeare Part I: The Elizabethan Period </t>
         </is>
       </c>
       <c r="D322" t="inlineStr">
@@ -11703,7 +11703,7 @@
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Romantic Poetry </t>
         </is>
       </c>
       <c r="D323" t="inlineStr">
@@ -11738,7 +11738,7 @@
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Poetics of the Body </t>
         </is>
       </c>
       <c r="D324" t="inlineStr">
@@ -11773,7 +11773,7 @@
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Jews and Jewishness in American Literature </t>
         </is>
       </c>
       <c r="D325" t="inlineStr">
@@ -11808,7 +11808,7 @@
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">What Is Racial Difference? </t>
         </is>
       </c>
       <c r="D326" t="inlineStr">
@@ -11843,7 +11843,7 @@
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">The Harlem Renaissance </t>
         </is>
       </c>
       <c r="D327" t="inlineStr">
@@ -11878,7 +11878,7 @@
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Rainbow Republic: American Queer Culture from Walt Whitman to Lady Gaga </t>
         </is>
       </c>
       <c r="D328" t="inlineStr">
@@ -11913,7 +11913,7 @@
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t>Advanced Studies in Restoration and Eighteenth-Century Literature Tpc: Sentiment</t>
         </is>
       </c>
       <c r="D329" t="inlineStr">
@@ -11948,7 +11948,7 @@
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">The World of Emily Dickinson </t>
         </is>
       </c>
       <c r="D330" t="inlineStr">
@@ -11983,7 +11983,7 @@
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Literary Theory </t>
         </is>
       </c>
       <c r="D331" t="inlineStr">
@@ -12018,7 +12018,7 @@
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Willa Cather </t>
         </is>
       </c>
       <c r="D332" t="inlineStr">
@@ -12053,7 +12053,7 @@
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Trauma, Conflict, and Narrative: Tales of Africa and the African Diaspora </t>
         </is>
       </c>
       <c r="D333" t="inlineStr">
@@ -12088,7 +12088,7 @@
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">What Is Racial Difference? </t>
         </is>
       </c>
       <c r="D334" t="inlineStr">
@@ -12123,7 +12123,7 @@
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Product Creation for All </t>
         </is>
       </c>
       <c r="D335" t="inlineStr">
@@ -12158,7 +12158,7 @@
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Making a Difference through Engineering </t>
         </is>
       </c>
       <c r="D336" t="inlineStr">
@@ -12193,7 +12193,7 @@
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Experimental Techniques </t>
         </is>
       </c>
       <c r="D337" t="inlineStr">
@@ -12228,7 +12228,7 @@
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Fundamentals of Environmental Science with Laboratory </t>
         </is>
       </c>
       <c r="D338" t="inlineStr">
@@ -12263,7 +12263,7 @@
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Fundamentals of Environmental Science with Laboratory </t>
         </is>
       </c>
       <c r="D339" t="inlineStr">
@@ -12298,7 +12298,7 @@
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Fundamentals of Environmental Science with Laboratory </t>
         </is>
       </c>
       <c r="D340" t="inlineStr">
@@ -12333,7 +12333,7 @@
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Environment and Society: Addressing Climate Change </t>
         </is>
       </c>
       <c r="D341" t="inlineStr">
@@ -12368,7 +12368,7 @@
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">The Philosophy of Food </t>
         </is>
       </c>
       <c r="D342" t="inlineStr">
@@ -12403,7 +12403,7 @@
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Environmental Movements in US History </t>
         </is>
       </c>
       <c r="D343" t="inlineStr">
@@ -12438,7 +12438,7 @@
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Social Causes and Consequences of Environmental Problems </t>
         </is>
       </c>
       <c r="D344" t="inlineStr">
@@ -12473,7 +12473,7 @@
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Environmental Ethics </t>
         </is>
       </c>
       <c r="D345" t="inlineStr">
@@ -12508,7 +12508,7 @@
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">The Color of Green Literature: Writing in the Face of Environmental Collapse </t>
         </is>
       </c>
       <c r="D346" t="inlineStr">
@@ -12543,7 +12543,7 @@
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Seminar: Environmental Policy </t>
         </is>
       </c>
       <c r="D347" t="inlineStr">
@@ -12578,7 +12578,7 @@
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Seminar: Current Topics in Ecology </t>
         </is>
       </c>
       <c r="D348" t="inlineStr">
@@ -12613,7 +12613,7 @@
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Calderwood Seminar in Public Writing: Environmental Synthesis and Communication </t>
         </is>
       </c>
       <c r="D349" t="inlineStr">
@@ -12648,7 +12648,7 @@
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Water Resources Planning and Management </t>
         </is>
       </c>
       <c r="D350" t="inlineStr">
@@ -12683,7 +12683,7 @@
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Beginning French I </t>
         </is>
       </c>
       <c r="D351" t="inlineStr">
@@ -12718,7 +12718,7 @@
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Beginning French I </t>
         </is>
       </c>
       <c r="D352" t="inlineStr">
@@ -12753,7 +12753,7 @@
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">French Language, Literatures, and Cultures </t>
         </is>
       </c>
       <c r="D353" t="inlineStr">
@@ -12788,7 +12788,7 @@
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">French Language, Literatures, and Cultures </t>
         </is>
       </c>
       <c r="D354" t="inlineStr">
@@ -12823,7 +12823,7 @@
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">French Language, Literatures, and Cultures </t>
         </is>
       </c>
       <c r="D355" t="inlineStr">
@@ -12858,7 +12858,7 @@
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">French Language, Literatures, and Cultures </t>
         </is>
       </c>
       <c r="D356" t="inlineStr">
@@ -12893,7 +12893,7 @@
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Literature and Film in Cultural Contexts </t>
         </is>
       </c>
       <c r="D357" t="inlineStr">
@@ -12928,7 +12928,7 @@
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Intermediate Spoken French </t>
         </is>
       </c>
       <c r="D358" t="inlineStr">
@@ -12963,7 +12963,7 @@
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Intermediate Spoken French </t>
         </is>
       </c>
       <c r="D359" t="inlineStr">
@@ -12998,7 +12998,7 @@
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Women and Literary Tradition </t>
         </is>
       </c>
       <c r="D360" t="inlineStr">
@@ -13033,7 +13033,7 @@
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Introduction to Francophone Studies: Global France, Its Dissidents, and Francophone Culture </t>
         </is>
       </c>
       <c r="D361" t="inlineStr">
@@ -13068,7 +13068,7 @@
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Literary Games in Postmodern and Contemporary Fiction </t>
         </is>
       </c>
       <c r="D362" t="inlineStr">
@@ -13103,7 +13103,7 @@
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Re-Mapping the French Novel (in English) </t>
         </is>
       </c>
       <c r="D363" t="inlineStr">
@@ -13138,7 +13138,7 @@
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Myth and Memory in Modern France: From the French Revolution to May 1968 </t>
         </is>
       </c>
       <c r="D364" t="inlineStr">
@@ -13173,7 +13173,7 @@
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">The Dynamic Earth with Laboratory </t>
         </is>
       </c>
       <c r="D365" t="inlineStr">
@@ -13208,7 +13208,7 @@
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">The Dynamic Earth with Laboratory </t>
         </is>
       </c>
       <c r="D366" t="inlineStr">
@@ -13243,7 +13243,7 @@
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">The Dynamic Earth with Laboratory </t>
         </is>
       </c>
       <c r="D367" t="inlineStr">
@@ -13278,7 +13278,7 @@
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">The Dynamic Earth with Laboratory </t>
         </is>
       </c>
       <c r="D368" t="inlineStr">
@@ -13313,7 +13313,7 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">The Dynamic Earth with Laboratory </t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
@@ -13348,7 +13348,7 @@
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">The Dynamic Earth with Laboratory </t>
         </is>
       </c>
       <c r="D370" t="inlineStr">
@@ -13383,7 +13383,7 @@
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">The Dynamic Earth with Laboratory </t>
         </is>
       </c>
       <c r="D371" t="inlineStr">
@@ -13418,7 +13418,7 @@
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Earth Materials with Laboratory </t>
         </is>
       </c>
       <c r="D372" t="inlineStr">
@@ -13453,7 +13453,7 @@
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Geomorphology with Laboratory </t>
         </is>
       </c>
       <c r="D373" t="inlineStr">
@@ -13488,7 +13488,7 @@
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Geomorphology with Laboratory </t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
@@ -13523,7 +13523,7 @@
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Planetary Atmospheres and Climates </t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
@@ -13558,7 +13558,7 @@
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Beginning German I </t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
@@ -13593,7 +13593,7 @@
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Beginning German I </t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
@@ -13628,7 +13628,7 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Intermediate German I </t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
@@ -13663,7 +13663,7 @@
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Intermediate German I </t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
@@ -13698,7 +13698,7 @@
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Once Upon a Time There Were Two Brothers: Fairy Tales, Genre, and Nation </t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
@@ -13733,7 +13733,7 @@
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">German Writing in the Face of Environmental Collapse </t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
@@ -13768,7 +13768,7 @@
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Beginning Greek 1 </t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
@@ -13803,7 +13803,7 @@
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Intermediate Greek 1: Athenian Literature </t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
@@ -13838,7 +13838,7 @@
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Euripides </t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
@@ -13873,7 +13873,7 @@
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">First-Year Seminar: American Hauntings </t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
@@ -13908,7 +13908,7 @@
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Roots of the Western Tradition </t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
@@ -13943,7 +13943,7 @@
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">The United States History since 1865 </t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
@@ -13978,7 +13978,7 @@
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">The Making of the Modern World Order </t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
@@ -14013,7 +14013,7 @@
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Dictatorship, Authoritarianism and Transition to Democracy in Spain and Latin America </t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
@@ -14048,7 +14048,7 @@
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">The Barbarian Kingdoms of Early Medieval Europe </t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
@@ -14083,7 +14083,7 @@
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Concrete Utopias: Rise of the Modern European City </t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
@@ -14118,7 +14118,7 @@
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">The Soviet Union: A Tragic Colossus </t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
@@ -14153,7 +14153,7 @@
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Brave New Worlds: Colonial American History and Culture </t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
@@ -14188,7 +14188,7 @@
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Civil War and the World </t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
@@ -14223,7 +14223,7 @@
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Islamic Africa: A Historical Introduction </t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
@@ -14258,7 +14258,7 @@
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Colonialism, Nationalism, and Decolonization in South Asia </t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
@@ -14293,7 +14293,7 @@
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Food, Sports, and Sex: Body Politics in South Asia </t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
@@ -14328,7 +14328,7 @@
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">China, Japan, and Korea in Comparative and Global Perspectives </t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
@@ -14363,7 +14363,7 @@
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Heresy and Popular Religion in the Middle Ages </t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
@@ -14398,7 +14398,7 @@
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">The Middle East in Modern History </t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
@@ -14433,7 +14433,7 @@
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Seminar: World War II as Memory and Myth </t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
@@ -14468,7 +14468,7 @@
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Seminar: A New Birth of Freedom:  Reimagining American History from Revolution to Civil War </t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
@@ -14503,7 +14503,7 @@
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Seminar: Fashion Matters: Dress, Style, and Politics in U.S. History </t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
@@ -14538,7 +14538,7 @@
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Seminar: World Economic Orders, 1918-2008 </t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
@@ -14573,7 +14573,7 @@
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Heresy and Popular Religion in the Middle Ages </t>
         </is>
       </c>
       <c r="D405" t="inlineStr">
@@ -14608,7 +14608,7 @@
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Elementary Hindi/Urdu I </t>
         </is>
       </c>
       <c r="D406" t="inlineStr">
@@ -14643,7 +14643,7 @@
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Intermediate Hindi/Urdu I </t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
@@ -14678,7 +14678,7 @@
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Beginning Italian I </t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
@@ -14713,7 +14713,7 @@
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Beginning Italian I </t>
         </is>
       </c>
       <c r="D409" t="inlineStr">
@@ -14748,7 +14748,7 @@
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Intensive Elementary Italian </t>
         </is>
       </c>
       <c r="D410" t="inlineStr">
@@ -14783,7 +14783,7 @@
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">First-Year Seminar: The Cities of Italy: An Introduction to Italian Culture (in English) </t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
@@ -14818,7 +14818,7 @@
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Intermediate Italian I </t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
@@ -14853,7 +14853,7 @@
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Dante's Divine Comedy (in English) </t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
@@ -14888,7 +14888,7 @@
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Women in Love: Portraits of Female Desire in Italian Culture </t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
@@ -14923,7 +14923,7 @@
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Beginning Japanese I </t>
         </is>
       </c>
       <c r="D415" t="inlineStr">
@@ -14958,7 +14958,7 @@
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Beginning Japanese I </t>
         </is>
       </c>
       <c r="D416" t="inlineStr">
@@ -14993,7 +14993,7 @@
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Intermediate Japanese I </t>
         </is>
       </c>
       <c r="D417" t="inlineStr">
@@ -15028,7 +15028,7 @@
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Intermediate Japanese I </t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
@@ -15063,7 +15063,7 @@
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Selected Readings in Advanced Japanese I </t>
         </is>
       </c>
       <c r="D419" t="inlineStr">
@@ -15098,7 +15098,7 @@
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Japanese Literature from Myth to Manga (in English) </t>
         </is>
       </c>
       <c r="D420" t="inlineStr">
@@ -15133,7 +15133,7 @@
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Contemporary Japanese Narrative (in English) </t>
         </is>
       </c>
       <c r="D421" t="inlineStr">
@@ -15168,7 +15168,7 @@
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">American Jews and the Media </t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
@@ -15203,7 +15203,7 @@
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">The Holocaust and the Nazi State </t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
@@ -15238,7 +15238,7 @@
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Jews and Jewishness in American Literature </t>
         </is>
       </c>
       <c r="D424" t="inlineStr">
@@ -15273,7 +15273,7 @@
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Gods of Stone: Monuments and the Sacred </t>
         </is>
       </c>
       <c r="D425" t="inlineStr">
@@ -15308,7 +15308,7 @@
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Beginning Korean I </t>
         </is>
       </c>
       <c r="D426" t="inlineStr">
@@ -15343,7 +15343,7 @@
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Beginning Korean I </t>
         </is>
       </c>
       <c r="D427" t="inlineStr">
@@ -15378,7 +15378,7 @@
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Intermediate Korean </t>
         </is>
       </c>
       <c r="D428" t="inlineStr">
@@ -15413,7 +15413,7 @@
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Advanced Intermediate Korean I - Formal Conversation and Presentation Skills </t>
         </is>
       </c>
       <c r="D429" t="inlineStr">
@@ -15448,7 +15448,7 @@
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Poverty and Inequality in Latin America </t>
         </is>
       </c>
       <c r="D430" t="inlineStr">
@@ -15483,7 +15483,7 @@
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Beginning Latin 1 </t>
         </is>
       </c>
       <c r="D431" t="inlineStr">
@@ -15518,7 +15518,7 @@
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Intermediate Latin 1: Introduction to Roman Literature and Culture </t>
         </is>
       </c>
       <c r="D432" t="inlineStr">
@@ -15553,7 +15553,7 @@
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Roman Historical Myths </t>
         </is>
       </c>
       <c r="D433" t="inlineStr">
@@ -15588,7 +15588,7 @@
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Introduction to Linguistics </t>
         </is>
       </c>
       <c r="D434" t="inlineStr">
@@ -15623,7 +15623,7 @@
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Introduction to Linguistics </t>
         </is>
       </c>
       <c r="D435" t="inlineStr">
@@ -15658,7 +15658,7 @@
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Language: Form and Meaning </t>
         </is>
       </c>
       <c r="D436" t="inlineStr">
@@ -15693,7 +15693,7 @@
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Introduction to Historical Linguistics </t>
         </is>
       </c>
       <c r="D437" t="inlineStr">
@@ -15728,7 +15728,7 @@
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Computing for the Socio-Techno Web </t>
         </is>
       </c>
       <c r="D438" t="inlineStr">
@@ -15763,7 +15763,7 @@
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Computing for the Socio-Techno Web </t>
         </is>
       </c>
       <c r="D439" t="inlineStr">
@@ -15798,7 +15798,7 @@
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Computing for the Socio-Techno Web </t>
         </is>
       </c>
       <c r="D440" t="inlineStr">
@@ -15833,7 +15833,7 @@
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Intro to Game Design </t>
         </is>
       </c>
       <c r="D441" t="inlineStr">
@@ -15868,7 +15868,7 @@
       </c>
       <c r="C442" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Calculus I </t>
         </is>
       </c>
       <c r="D442" t="inlineStr">
@@ -15903,7 +15903,7 @@
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Calculus I </t>
         </is>
       </c>
       <c r="D443" t="inlineStr">
@@ -15938,7 +15938,7 @@
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Calculus I </t>
         </is>
       </c>
       <c r="D444" t="inlineStr">
@@ -15973,7 +15973,7 @@
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Applied Calculus I </t>
         </is>
       </c>
       <c r="D445" t="inlineStr">
@@ -16008,7 +16008,7 @@
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Calculus II </t>
         </is>
       </c>
       <c r="D446" t="inlineStr">
@@ -16043,7 +16043,7 @@
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Calculus II </t>
         </is>
       </c>
       <c r="D447" t="inlineStr">
@@ -16078,7 +16078,7 @@
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Calculus II </t>
         </is>
       </c>
       <c r="D448" t="inlineStr">
@@ -16113,7 +16113,7 @@
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Calculus II </t>
         </is>
       </c>
       <c r="D449" t="inlineStr">
@@ -16148,7 +16148,7 @@
       </c>
       <c r="C450" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Calculus II </t>
         </is>
       </c>
       <c r="D450" t="inlineStr">
@@ -16183,7 +16183,7 @@
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Calculus IIA </t>
         </is>
       </c>
       <c r="D451" t="inlineStr">
@@ -16218,7 +16218,7 @@
       </c>
       <c r="C452" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Mathematics and Politics </t>
         </is>
       </c>
       <c r="D452" t="inlineStr">
@@ -16253,7 +16253,7 @@
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">First Year Seminar: Discrete Mathematics </t>
         </is>
       </c>
       <c r="D453" t="inlineStr">
@@ -16288,7 +16288,7 @@
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Multivariable Calculus </t>
         </is>
       </c>
       <c r="D454" t="inlineStr">
@@ -16323,7 +16323,7 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Multivariable Calculus </t>
         </is>
       </c>
       <c r="D455" t="inlineStr">
@@ -16358,7 +16358,7 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Multivariable Calculus </t>
         </is>
       </c>
       <c r="D456" t="inlineStr">
@@ -16393,7 +16393,7 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Multivariable Calculus </t>
         </is>
       </c>
       <c r="D457" t="inlineStr">
@@ -16428,7 +16428,7 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Linear Algebra </t>
         </is>
       </c>
       <c r="D458" t="inlineStr">
@@ -16463,7 +16463,7 @@
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Linear Algebra </t>
         </is>
       </c>
       <c r="D459" t="inlineStr">
@@ -16498,7 +16498,7 @@
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">First Year Seminar: Knots, Molecules, and the Universe </t>
         </is>
       </c>
       <c r="D460" t="inlineStr">
@@ -16533,7 +16533,7 @@
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Differential Equations with Applied Linear Algebra </t>
         </is>
       </c>
       <c r="D461" t="inlineStr">
@@ -16568,7 +16568,7 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Probability </t>
         </is>
       </c>
       <c r="D462" t="inlineStr">
@@ -16603,7 +16603,7 @@
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Combinatorics and Graph Theory </t>
         </is>
       </c>
       <c r="D463" t="inlineStr">
@@ -16638,7 +16638,7 @@
       </c>
       <c r="C464" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Combinatorics and Graph Theory </t>
         </is>
       </c>
       <c r="D464" t="inlineStr">
@@ -16673,7 +16673,7 @@
       </c>
       <c r="C465" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Elements of Analysis I </t>
         </is>
       </c>
       <c r="D465" t="inlineStr">
@@ -16708,7 +16708,7 @@
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Abstract Algebra </t>
         </is>
       </c>
       <c r="D466" t="inlineStr">
@@ -16743,7 +16743,7 @@
       </c>
       <c r="C467" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Topology </t>
         </is>
       </c>
       <c r="D467" t="inlineStr">
@@ -16778,7 +16778,7 @@
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Complex Analysis </t>
         </is>
       </c>
       <c r="D468" t="inlineStr">
@@ -16813,7 +16813,7 @@
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Differential Geometry and General Relativity </t>
         </is>
       </c>
       <c r="D469" t="inlineStr">
@@ -16848,7 +16848,7 @@
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Cordoba: City and Myth </t>
         </is>
       </c>
       <c r="D470" t="inlineStr">
@@ -16883,7 +16883,7 @@
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Dante's Divine Comedy (in English) </t>
         </is>
       </c>
       <c r="D471" t="inlineStr">
@@ -16918,7 +16918,7 @@
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Religious and Ethnic Minorities in the Ottoman Empire </t>
         </is>
       </c>
       <c r="D472" t="inlineStr">
@@ -16953,7 +16953,7 @@
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Seminar: Law and Community in Muslim Societies </t>
         </is>
       </c>
       <c r="D473" t="inlineStr">
@@ -16988,7 +16988,7 @@
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Musical Literacies </t>
         </is>
       </c>
       <c r="D474" t="inlineStr">
@@ -17023,7 +17023,7 @@
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Musical Literacies </t>
         </is>
       </c>
       <c r="D475" t="inlineStr">
@@ -17058,7 +17058,7 @@
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Harmonic Concepts in Tonal Music </t>
         </is>
       </c>
       <c r="D476" t="inlineStr">
@@ -17093,7 +17093,7 @@
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t>Topics in Music History I Tpc: Renaissance Music</t>
         </is>
       </c>
       <c r="D477" t="inlineStr">
@@ -17128,7 +17128,7 @@
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Jazz and Popular Music Theory </t>
         </is>
       </c>
       <c r="D478" t="inlineStr">
@@ -17163,7 +17163,7 @@
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t>Topics in Instrumental Music Tpc:  Chamber Music in Her Hand</t>
         </is>
       </c>
       <c r="D479" t="inlineStr">
@@ -17198,7 +17198,7 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">American Popular Music </t>
         </is>
       </c>
       <c r="D480" t="inlineStr">
@@ -17233,7 +17233,7 @@
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Brazilian Music and the Politics of Culture </t>
         </is>
       </c>
       <c r="D481" t="inlineStr">
@@ -17268,7 +17268,7 @@
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Advanced Harmony </t>
         </is>
       </c>
       <c r="D482" t="inlineStr">
@@ -17303,7 +17303,7 @@
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t>Topics in Instrumental Music Tpc: Chamber Music in Her Hand</t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
@@ -17338,7 +17338,7 @@
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Advanced Performance Seminar </t>
         </is>
       </c>
       <c r="D484" t="inlineStr">
@@ -17373,7 +17373,7 @@
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Brain, Behavior, and Cognition: An Introduction to Neuroscience </t>
         </is>
       </c>
       <c r="D485" t="inlineStr">
@@ -17408,7 +17408,7 @@
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Brain, Behavior, and Cognition: An Introduction to Neuroscience </t>
         </is>
       </c>
       <c r="D486" t="inlineStr">
@@ -17443,7 +17443,7 @@
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Brain, Behavior, and Cognition: An Introduction to Neuroscience </t>
         </is>
       </c>
       <c r="D487" t="inlineStr">
@@ -17478,7 +17478,7 @@
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Neurons, Networks, and Behavior with Laboratory </t>
         </is>
       </c>
       <c r="D488" t="inlineStr">
@@ -17513,7 +17513,7 @@
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Neurons, Networks, and Behavior with Laboratory </t>
         </is>
       </c>
       <c r="D489" t="inlineStr">
@@ -17548,7 +17548,7 @@
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Neurons, Networks, and Behavior with Laboratory </t>
         </is>
       </c>
       <c r="D490" t="inlineStr">
@@ -17583,7 +17583,7 @@
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Research or group independent study: Behavioral Neurophysiology of Attention and Perception </t>
         </is>
       </c>
       <c r="D491" t="inlineStr">
@@ -17618,7 +17618,7 @@
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Capstone Seminar in Neuroscience </t>
         </is>
       </c>
       <c r="D492" t="inlineStr">
@@ -17653,7 +17653,7 @@
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Capstone Seminar in Neuroscience </t>
         </is>
       </c>
       <c r="D493" t="inlineStr">
@@ -17688,7 +17688,7 @@
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Capstone Seminar in Neuroscience </t>
         </is>
       </c>
       <c r="D494" t="inlineStr">
@@ -17723,7 +17723,7 @@
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Capstone Seminar in Neuroscience </t>
         </is>
       </c>
       <c r="D495" t="inlineStr">
@@ -17758,7 +17758,7 @@
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Neuroendocrinology </t>
         </is>
       </c>
       <c r="D496" t="inlineStr">
@@ -17793,7 +17793,7 @@
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Neurobiology of Sleep, Learning and Memory with Laboratory </t>
         </is>
       </c>
       <c r="D497" t="inlineStr">
@@ -17828,7 +17828,7 @@
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Neurobiology of Sleep, Learning and Memory with Laboratory </t>
         </is>
       </c>
       <c r="D498" t="inlineStr">
@@ -17863,7 +17863,7 @@
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Neuropharmacology </t>
         </is>
       </c>
       <c r="D499" t="inlineStr">
@@ -17898,7 +17898,7 @@
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Research or group independent study: Behavioral Neurophysiology of Attention and Perception </t>
         </is>
       </c>
       <c r="D500" t="inlineStr">
@@ -17933,7 +17933,7 @@
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Term 1 Sailing </t>
         </is>
       </c>
       <c r="D501" t="inlineStr">
@@ -17968,7 +17968,7 @@
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Term 1 Sailing </t>
         </is>
       </c>
       <c r="D502" t="inlineStr">
@@ -18003,7 +18003,7 @@
       </c>
       <c r="C503" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Term 1 Sailing </t>
         </is>
       </c>
       <c r="D503" t="inlineStr">
@@ -18038,7 +18038,7 @@
       </c>
       <c r="C504" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Term 2 Aquatics Games </t>
         </is>
       </c>
       <c r="D504" t="inlineStr">
@@ -18073,7 +18073,7 @@
       </c>
       <c r="C505" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Term 1 Dorm and Class Crew </t>
         </is>
       </c>
       <c r="D505" t="inlineStr">
@@ -18108,7 +18108,7 @@
       </c>
       <c r="C506" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Term 1 Dorm and Class Crew </t>
         </is>
       </c>
       <c r="D506" t="inlineStr">
@@ -18143,7 +18143,7 @@
       </c>
       <c r="C507" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Lifeguard Certification </t>
         </is>
       </c>
       <c r="D507" t="inlineStr">
@@ -18178,7 +18178,7 @@
       </c>
       <c r="C508" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Ballet I </t>
         </is>
       </c>
       <c r="D508" t="inlineStr">
@@ -18213,7 +18213,7 @@
       </c>
       <c r="C509" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Ballet II Advanced Beginner </t>
         </is>
       </c>
       <c r="D509" t="inlineStr">
@@ -18248,7 +18248,7 @@
       </c>
       <c r="C510" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Beginning Dance </t>
         </is>
       </c>
       <c r="D510" t="inlineStr">
@@ -18283,7 +18283,7 @@
       </c>
       <c r="C511" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Intermediate-Advanced Modern Dance </t>
         </is>
       </c>
       <c r="D511" t="inlineStr">
@@ -18318,7 +18318,7 @@
       </c>
       <c r="C512" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">African Dance </t>
         </is>
       </c>
       <c r="D512" t="inlineStr">
@@ -18353,7 +18353,7 @@
       </c>
       <c r="C513" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Classical Indian (Kathak) Dance </t>
         </is>
       </c>
       <c r="D513" t="inlineStr">
@@ -18388,7 +18388,7 @@
       </c>
       <c r="C514" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Yoga Dance </t>
         </is>
       </c>
       <c r="D514" t="inlineStr">
@@ -18423,7 +18423,7 @@
       </c>
       <c r="C515" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Fitness Walking </t>
         </is>
       </c>
       <c r="D515" t="inlineStr">
@@ -18458,7 +18458,7 @@
       </c>
       <c r="C516" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Zumba </t>
         </is>
       </c>
       <c r="D516" t="inlineStr">
@@ -18493,7 +18493,7 @@
       </c>
       <c r="C517" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Zumba </t>
         </is>
       </c>
       <c r="D517" t="inlineStr">
@@ -18528,7 +18528,7 @@
       </c>
       <c r="C518" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Cardiovascular Fitness </t>
         </is>
       </c>
       <c r="D518" t="inlineStr">
@@ -18563,7 +18563,7 @@
       </c>
       <c r="C519" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Pilates </t>
         </is>
       </c>
       <c r="D519" t="inlineStr">
@@ -18598,7 +18598,7 @@
       </c>
       <c r="C520" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Pilates </t>
         </is>
       </c>
       <c r="D520" t="inlineStr">
@@ -18633,7 +18633,7 @@
       </c>
       <c r="C521" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Pilates </t>
         </is>
       </c>
       <c r="D521" t="inlineStr">
@@ -18668,7 +18668,7 @@
       </c>
       <c r="C522" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Strength Training </t>
         </is>
       </c>
       <c r="D522" t="inlineStr">
@@ -18703,7 +18703,7 @@
       </c>
       <c r="C523" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Couch to 5K </t>
         </is>
       </c>
       <c r="D523" t="inlineStr">
@@ -18738,7 +18738,7 @@
       </c>
       <c r="C524" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Boot Camp Fitness </t>
         </is>
       </c>
       <c r="D524" t="inlineStr">
@@ -18773,7 +18773,7 @@
       </c>
       <c r="C525" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Spinning I </t>
         </is>
       </c>
       <c r="D525" t="inlineStr">
@@ -18808,7 +18808,7 @@
       </c>
       <c r="C526" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Tai Chi </t>
         </is>
       </c>
       <c r="D526" t="inlineStr">
@@ -18843,7 +18843,7 @@
       </c>
       <c r="C527" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Taekwon-Do I </t>
         </is>
       </c>
       <c r="D527" t="inlineStr">
@@ -18878,7 +18878,7 @@
       </c>
       <c r="C528" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Term 2 Archery </t>
         </is>
       </c>
       <c r="D528" t="inlineStr">
@@ -18913,7 +18913,7 @@
       </c>
       <c r="C529" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Term 2 Fencing </t>
         </is>
       </c>
       <c r="D529" t="inlineStr">
@@ -18948,7 +18948,7 @@
       </c>
       <c r="C530" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Term 1 Golf </t>
         </is>
       </c>
       <c r="D530" t="inlineStr">
@@ -18983,7 +18983,7 @@
       </c>
       <c r="C531" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Rock Climbing </t>
         </is>
       </c>
       <c r="D531" t="inlineStr">
@@ -19018,7 +19018,7 @@
       </c>
       <c r="C532" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Rock Climbing </t>
         </is>
       </c>
       <c r="D532" t="inlineStr">
@@ -19053,7 +19053,7 @@
       </c>
       <c r="C533" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Rock Climbing </t>
         </is>
       </c>
       <c r="D533" t="inlineStr">
@@ -19088,7 +19088,7 @@
       </c>
       <c r="C534" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Elementary Tennis </t>
         </is>
       </c>
       <c r="D534" t="inlineStr">
@@ -19123,7 +19123,7 @@
       </c>
       <c r="C535" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Elementary Tennis </t>
         </is>
       </c>
       <c r="D535" t="inlineStr">
@@ -19158,7 +19158,7 @@
       </c>
       <c r="C536" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Volleyball </t>
         </is>
       </c>
       <c r="D536" t="inlineStr">
@@ -19193,7 +19193,7 @@
       </c>
       <c r="C537" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Horseback Riding (2 credits) </t>
         </is>
       </c>
       <c r="D537" t="inlineStr">
@@ -19224,7 +19224,7 @@
       </c>
       <c r="C538" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Horseback Riding (4 credits) </t>
         </is>
       </c>
       <c r="D538" t="inlineStr">
@@ -19255,7 +19255,7 @@
       </c>
       <c r="C539" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Beginning Yoga </t>
         </is>
       </c>
       <c r="D539" t="inlineStr">
@@ -19290,7 +19290,7 @@
       </c>
       <c r="C540" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Beginning Yoga </t>
         </is>
       </c>
       <c r="D540" t="inlineStr">
@@ -19325,7 +19325,7 @@
       </c>
       <c r="C541" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Beginning Yoga </t>
         </is>
       </c>
       <c r="D541" t="inlineStr">
@@ -19360,7 +19360,7 @@
       </c>
       <c r="C542" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Beginning Yoga </t>
         </is>
       </c>
       <c r="D542" t="inlineStr">
@@ -19395,7 +19395,7 @@
       </c>
       <c r="C543" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Term 1 Mindfulness </t>
         </is>
       </c>
       <c r="D543" t="inlineStr">
@@ -19430,7 +19430,7 @@
       </c>
       <c r="C544" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Term 2 Mindfulness </t>
         </is>
       </c>
       <c r="D544" t="inlineStr">
@@ -19465,7 +19465,7 @@
       </c>
       <c r="C545" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Mindfulness </t>
         </is>
       </c>
       <c r="D545" t="inlineStr">
@@ -19500,7 +19500,7 @@
       </c>
       <c r="C546" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Yoga for Stress Relief </t>
         </is>
       </c>
       <c r="D546" t="inlineStr">
@@ -19535,7 +19535,7 @@
       </c>
       <c r="C547" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Flexibility/Stretching </t>
         </is>
       </c>
       <c r="D547" t="inlineStr">
@@ -19570,7 +19570,7 @@
       </c>
       <c r="C548" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Introduction to the Study of Conflict, Justice, and Peace </t>
         </is>
       </c>
       <c r="D548" t="inlineStr">
@@ -19605,7 +19605,7 @@
       </c>
       <c r="C549" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Qualitative Methods in the Social Sciences </t>
         </is>
       </c>
       <c r="D549" t="inlineStr">
@@ -19640,7 +19640,7 @@
       </c>
       <c r="C550" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Schools and Society </t>
         </is>
       </c>
       <c r="D550" t="inlineStr">
@@ -19675,7 +19675,7 @@
       </c>
       <c r="C551" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Understanding and Improving Schools </t>
         </is>
       </c>
       <c r="D551" t="inlineStr">
@@ -19710,7 +19710,7 @@
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Politics of the Middle East and North Africa </t>
         </is>
       </c>
       <c r="D552" t="inlineStr">
@@ -19745,7 +19745,7 @@
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Social Inequality: Race, Class and Gender </t>
         </is>
       </c>
       <c r="D553" t="inlineStr">
@@ -19780,7 +19780,7 @@
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Epidemics and Pandemics: Biopolitics, and disparities in historical and cultural perspective </t>
         </is>
       </c>
       <c r="D554" t="inlineStr">
@@ -19815,7 +19815,7 @@
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">U.S. Public Health </t>
         </is>
       </c>
       <c r="D555" t="inlineStr">
@@ -19850,7 +19850,7 @@
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Civil War and the World </t>
         </is>
       </c>
       <c r="D556" t="inlineStr">
@@ -19885,7 +19885,7 @@
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Seminar: Nonviolent Direct Action in Theory and Practice </t>
         </is>
       </c>
       <c r="D557" t="inlineStr">
@@ -19920,7 +19920,7 @@
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Trauma, Conflict, and Narrative: Tales of Africa and the African Diaspora </t>
         </is>
       </c>
       <c r="D558" t="inlineStr">
@@ -19955,7 +19955,7 @@
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Self and World: Introduction to Metaphysics and Epistemology </t>
         </is>
       </c>
       <c r="D559" t="inlineStr">
@@ -19990,7 +19990,7 @@
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">The Philosophy of Food </t>
         </is>
       </c>
       <c r="D560" t="inlineStr">
@@ -20025,7 +20025,7 @@
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Introduction to Moral Philosophy </t>
         </is>
       </c>
       <c r="D561" t="inlineStr">
@@ -20060,7 +20060,7 @@
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Philosophy and Witchcraft </t>
         </is>
       </c>
       <c r="D562" t="inlineStr">
@@ -20095,7 +20095,7 @@
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Logic </t>
         </is>
       </c>
       <c r="D563" t="inlineStr">
@@ -20130,7 +20130,7 @@
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">History of Modern Philosophy </t>
         </is>
       </c>
       <c r="D564" t="inlineStr">
@@ -20165,7 +20165,7 @@
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Environmental Ethics </t>
         </is>
       </c>
       <c r="D565" t="inlineStr">
@@ -20200,7 +20200,7 @@
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Introduction to Global Justice </t>
         </is>
       </c>
       <c r="D566" t="inlineStr">
@@ -20235,7 +20235,7 @@
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Seminar: Capitalism, Modernity and Alienation </t>
         </is>
       </c>
       <c r="D567" t="inlineStr">
@@ -20270,7 +20270,7 @@
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Issues in Social Philosophy of Language </t>
         </is>
       </c>
       <c r="D568" t="inlineStr">
@@ -20305,7 +20305,7 @@
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Relativity and Quantum Physics:  An Introduction to College Physics </t>
         </is>
       </c>
       <c r="D569" t="inlineStr">
@@ -20340,7 +20340,7 @@
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Physics for Future Presidents </t>
         </is>
       </c>
       <c r="D570" t="inlineStr">
@@ -20375,7 +20375,7 @@
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Fundamentals of Mechanics with Laboratory </t>
         </is>
       </c>
       <c r="D571" t="inlineStr">
@@ -20410,7 +20410,7 @@
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Fundamentals of Mechanics with Laboratory </t>
         </is>
       </c>
       <c r="D572" t="inlineStr">
@@ -20445,7 +20445,7 @@
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Fundamentals of Electricity, Magnetism, and Optics with Laboratory </t>
         </is>
       </c>
       <c r="D573" t="inlineStr">
@@ -20480,7 +20480,7 @@
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Principles and Applications of Mechanics with Laboratory </t>
         </is>
       </c>
       <c r="D574" t="inlineStr">
@@ -20515,7 +20515,7 @@
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Principles and Applications of Electricity and Magnetism </t>
         </is>
       </c>
       <c r="D575" t="inlineStr">
@@ -20550,7 +20550,7 @@
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Introduction to Simulation and Modeling </t>
         </is>
       </c>
       <c r="D576" t="inlineStr">
@@ -20585,7 +20585,7 @@
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Introduction to Thermodynamics and Statistical Mechanics </t>
         </is>
       </c>
       <c r="D577" t="inlineStr">
@@ -20620,7 +20620,7 @@
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Intermediate Electromagnetism </t>
         </is>
       </c>
       <c r="D578" t="inlineStr">
@@ -20655,7 +20655,7 @@
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Experimental Techniques </t>
         </is>
       </c>
       <c r="D579" t="inlineStr">
@@ -20690,7 +20690,7 @@
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Physics Pedagogy in Practice </t>
         </is>
       </c>
       <c r="D580" t="inlineStr">
@@ -20725,7 +20725,7 @@
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Quantum Mechanics </t>
         </is>
       </c>
       <c r="D581" t="inlineStr">
@@ -20760,7 +20760,7 @@
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Electromagnetic Theory </t>
         </is>
       </c>
       <c r="D582" t="inlineStr">
@@ -20795,7 +20795,7 @@
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Differential Geometry and General Relativity </t>
         </is>
       </c>
       <c r="D583" t="inlineStr">
@@ -20830,7 +20830,7 @@
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Modern Materials </t>
         </is>
       </c>
       <c r="D584" t="inlineStr">
@@ -20865,7 +20865,7 @@
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">American Politics </t>
         </is>
       </c>
       <c r="D585" t="inlineStr">
@@ -20900,7 +20900,7 @@
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">American Politics </t>
         </is>
       </c>
       <c r="D586" t="inlineStr">
@@ -20935,7 +20935,7 @@
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Campaigns and Elections </t>
         </is>
       </c>
       <c r="D587" t="inlineStr">
@@ -20970,7 +20970,7 @@
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Logic and Rhetoric for Political Analysis </t>
         </is>
       </c>
       <c r="D588" t="inlineStr">
@@ -21005,7 +21005,7 @@
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Constitutional Law </t>
         </is>
       </c>
       <c r="D589" t="inlineStr">
@@ -21040,7 +21040,7 @@
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Seminar: Gender and Law </t>
         </is>
       </c>
       <c r="D590" t="inlineStr">
@@ -21075,7 +21075,7 @@
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Political Psychology </t>
         </is>
       </c>
       <c r="D591" t="inlineStr">
@@ -21110,7 +21110,7 @@
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Comparative Politics </t>
         </is>
       </c>
       <c r="D592" t="inlineStr">
@@ -21145,7 +21145,7 @@
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Political Economy of Development and Underdevelopment </t>
         </is>
       </c>
       <c r="D593" t="inlineStr">
@@ -21180,7 +21180,7 @@
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Politics of China </t>
         </is>
       </c>
       <c r="D594" t="inlineStr">
@@ -21215,7 +21215,7 @@
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Social Causes and Consequences of Environmental Problems </t>
         </is>
       </c>
       <c r="D595" t="inlineStr">
@@ -21250,7 +21250,7 @@
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Politics of the Middle East and North Africa </t>
         </is>
       </c>
       <c r="D596" t="inlineStr">
@@ -21285,7 +21285,7 @@
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Qualitative Methods in the Social Sciences </t>
         </is>
       </c>
       <c r="D597" t="inlineStr">
@@ -21320,7 +21320,7 @@
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Introduction to African Politics </t>
         </is>
       </c>
       <c r="D598" t="inlineStr">
@@ -21355,7 +21355,7 @@
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Seminar: Nonviolent Direct Action in Theory and Practice </t>
         </is>
       </c>
       <c r="D599" t="inlineStr">
@@ -21390,7 +21390,7 @@
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Seminar: Revolution </t>
         </is>
       </c>
       <c r="D600" t="inlineStr">
@@ -21425,7 +21425,7 @@
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Seminar: Environmental Policy </t>
         </is>
       </c>
       <c r="D601" t="inlineStr">
@@ -21460,7 +21460,7 @@
       </c>
       <c r="C602" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Seminar: Women and Gender in Middle Eastern Politics </t>
         </is>
       </c>
       <c r="D602" t="inlineStr">
@@ -21495,7 +21495,7 @@
       </c>
       <c r="C603" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Introduction to Research Methods in Political Science </t>
         </is>
       </c>
       <c r="D603" t="inlineStr">
@@ -21530,7 +21530,7 @@
       </c>
       <c r="C604" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">World Politics </t>
         </is>
       </c>
       <c r="D604" t="inlineStr">
@@ -21565,7 +21565,7 @@
       </c>
       <c r="C605" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">World Politics </t>
         </is>
       </c>
       <c r="D605" t="inlineStr">
@@ -21600,7 +21600,7 @@
       </c>
       <c r="C606" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">International Security </t>
         </is>
       </c>
       <c r="D606" t="inlineStr">
@@ -21635,7 +21635,7 @@
       </c>
       <c r="C607" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">International Political Economy </t>
         </is>
       </c>
       <c r="D607" t="inlineStr">
@@ -21670,7 +21670,7 @@
       </c>
       <c r="C608" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Seminar: The Politics of Chocolates and Other Foods </t>
         </is>
       </c>
       <c r="D608" t="inlineStr">
@@ -21705,7 +21705,7 @@
       </c>
       <c r="C609" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Seminar: Decision-Making in Foreign Policy </t>
         </is>
       </c>
       <c r="D609" t="inlineStr">
@@ -21740,7 +21740,7 @@
       </c>
       <c r="C610" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Political Action and Dissent </t>
         </is>
       </c>
       <c r="D610" t="inlineStr">
@@ -21775,7 +21775,7 @@
       </c>
       <c r="C611" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Canons of Political Thought </t>
         </is>
       </c>
       <c r="D611" t="inlineStr">
@@ -21810,7 +21810,7 @@
       </c>
       <c r="C612" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Democracy and Difference </t>
         </is>
       </c>
       <c r="D612" t="inlineStr">
@@ -21845,7 +21845,7 @@
       </c>
       <c r="C613" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Beyond Prisons: Resistance, Reform, Abolition </t>
         </is>
       </c>
       <c r="D613" t="inlineStr">
@@ -21880,7 +21880,7 @@
       </c>
       <c r="C614" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Seminar: Sex in Politics </t>
         </is>
       </c>
       <c r="D614" t="inlineStr">
@@ -21915,7 +21915,7 @@
       </c>
       <c r="C615" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Intensive Elementary Portuguese </t>
         </is>
       </c>
       <c r="D615" t="inlineStr">
@@ -21950,7 +21950,7 @@
       </c>
       <c r="C616" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Introduction to Lusophone Studies </t>
         </is>
       </c>
       <c r="D616" t="inlineStr">
@@ -21985,7 +21985,7 @@
       </c>
       <c r="C617" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Brazilian Music and the Politics of Culture </t>
         </is>
       </c>
       <c r="D617" t="inlineStr">
@@ -22020,7 +22020,7 @@
       </c>
       <c r="C618" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Introduction to Psychology </t>
         </is>
       </c>
       <c r="D618" t="inlineStr">
@@ -22055,7 +22055,7 @@
       </c>
       <c r="C619" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Introduction to Psychology </t>
         </is>
       </c>
       <c r="D619" t="inlineStr">
@@ -22090,7 +22090,7 @@
       </c>
       <c r="C620" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Introduction to Psychology </t>
         </is>
       </c>
       <c r="D620" t="inlineStr">
@@ -22125,7 +22125,7 @@
       </c>
       <c r="C621" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Introduction to Psychology </t>
         </is>
       </c>
       <c r="D621" t="inlineStr">
@@ -22160,7 +22160,7 @@
       </c>
       <c r="C622" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Statistics </t>
         </is>
       </c>
       <c r="D622" t="inlineStr">
@@ -22195,7 +22195,7 @@
       </c>
       <c r="C623" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Statistics </t>
         </is>
       </c>
       <c r="D623" t="inlineStr">
@@ -22230,7 +22230,7 @@
       </c>
       <c r="C624" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Statistics </t>
         </is>
       </c>
       <c r="D624" t="inlineStr">
@@ -22265,7 +22265,7 @@
       </c>
       <c r="C625" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Statistics </t>
         </is>
       </c>
       <c r="D625" t="inlineStr">
@@ -22300,7 +22300,7 @@
       </c>
       <c r="C626" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Statistics </t>
         </is>
       </c>
       <c r="D626" t="inlineStr">
@@ -22335,7 +22335,7 @@
       </c>
       <c r="C627" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Statistics </t>
         </is>
       </c>
       <c r="D627" t="inlineStr">
@@ -22370,7 +22370,7 @@
       </c>
       <c r="C628" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Developmental Psychology </t>
         </is>
       </c>
       <c r="D628" t="inlineStr">
@@ -22405,7 +22405,7 @@
       </c>
       <c r="C629" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Social Psychology </t>
         </is>
       </c>
       <c r="D629" t="inlineStr">
@@ -22440,7 +22440,7 @@
       </c>
       <c r="C630" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Personality </t>
         </is>
       </c>
       <c r="D630" t="inlineStr">
@@ -22475,7 +22475,7 @@
       </c>
       <c r="C631" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Abnormal Psychology </t>
         </is>
       </c>
       <c r="D631" t="inlineStr">
@@ -22510,7 +22510,7 @@
       </c>
       <c r="C632" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Cognition </t>
         </is>
       </c>
       <c r="D632" t="inlineStr">
@@ -22545,7 +22545,7 @@
       </c>
       <c r="C633" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Sensation and Perception </t>
         </is>
       </c>
       <c r="D633" t="inlineStr">
@@ -22580,7 +22580,7 @@
       </c>
       <c r="C634" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Biological Psychology </t>
         </is>
       </c>
       <c r="D634" t="inlineStr">
@@ -22615,7 +22615,7 @@
       </c>
       <c r="C635" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Research Methods in Personality Psychology </t>
         </is>
       </c>
       <c r="D635" t="inlineStr">
@@ -22650,7 +22650,7 @@
       </c>
       <c r="C636" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Research Methods in Cognitive Psychology </t>
         </is>
       </c>
       <c r="D636" t="inlineStr">
@@ -22685,7 +22685,7 @@
       </c>
       <c r="C637" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Seminar: Psychopharmacology </t>
         </is>
       </c>
       <c r="D637" t="inlineStr">
@@ -22720,7 +22720,7 @@
       </c>
       <c r="C638" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Seminar: Child and Adolescent Psychopathology </t>
         </is>
       </c>
       <c r="D638" t="inlineStr">
@@ -22755,7 +22755,7 @@
       </c>
       <c r="C639" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Seminar: Genes, Brains, and Human Variation </t>
         </is>
       </c>
       <c r="D639" t="inlineStr">
@@ -22790,7 +22790,7 @@
       </c>
       <c r="C640" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Seminar: Narrative Identity </t>
         </is>
       </c>
       <c r="D640" t="inlineStr">
@@ -22825,7 +22825,7 @@
       </c>
       <c r="C641" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Organizational Psychology </t>
         </is>
       </c>
       <c r="D641" t="inlineStr">
@@ -22860,7 +22860,7 @@
       </c>
       <c r="C642" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Seminar: Nonverbal Communication </t>
         </is>
       </c>
       <c r="D642" t="inlineStr">
@@ -22895,7 +22895,7 @@
       </c>
       <c r="C643" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Introduction to Quantitative Reasoning </t>
         </is>
       </c>
       <c r="D643" t="inlineStr">
@@ -22930,7 +22930,7 @@
       </c>
       <c r="C644" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Introduction to Quantitative Reasoning </t>
         </is>
       </c>
       <c r="D644" t="inlineStr">
@@ -22965,7 +22965,7 @@
       </c>
       <c r="C645" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Introduction to Quantitative Reasoning </t>
         </is>
       </c>
       <c r="D645" t="inlineStr">
@@ -23000,7 +23000,7 @@
       </c>
       <c r="C646" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Introduction to Data Literacy: Everyday Applications </t>
         </is>
       </c>
       <c r="D646" t="inlineStr">
@@ -23035,7 +23035,7 @@
       </c>
       <c r="C647" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Applied Data Analysis and Statistical Inference </t>
         </is>
       </c>
       <c r="D647" t="inlineStr">
@@ -23070,7 +23070,7 @@
       </c>
       <c r="C648" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Introduction to Asian Religions </t>
         </is>
       </c>
       <c r="D648" t="inlineStr">
@@ -23105,7 +23105,7 @@
       </c>
       <c r="C649" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">New World Afro-Atlantic Religions </t>
         </is>
       </c>
       <c r="D649" t="inlineStr">
@@ -23140,7 +23140,7 @@
       </c>
       <c r="C650" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Religion in America </t>
         </is>
       </c>
       <c r="D650" t="inlineStr">
@@ -23175,7 +23175,7 @@
       </c>
       <c r="C651" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Ethics </t>
         </is>
       </c>
       <c r="D651" t="inlineStr">
@@ -23210,7 +23210,7 @@
       </c>
       <c r="C652" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Divine Madness: Dreams, Visions, Hallucinations </t>
         </is>
       </c>
       <c r="D652" t="inlineStr">
@@ -23245,7 +23245,7 @@
       </c>
       <c r="C653" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Women in the Biblical World </t>
         </is>
       </c>
       <c r="D653" t="inlineStr">
@@ -23280,7 +23280,7 @@
       </c>
       <c r="C654" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">The Holocaust and the Nazi State </t>
         </is>
       </c>
       <c r="D654" t="inlineStr">
@@ -23315,7 +23315,7 @@
       </c>
       <c r="C655" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Chinese Thought and Religion </t>
         </is>
       </c>
       <c r="D655" t="inlineStr">
@@ -23350,7 +23350,7 @@
       </c>
       <c r="C656" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Religious and Ethnic Minorities in the Ottoman Empire </t>
         </is>
       </c>
       <c r="D656" t="inlineStr">
@@ -23385,7 +23385,7 @@
       </c>
       <c r="C657" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Religion and Culture in Iran </t>
         </is>
       </c>
       <c r="D657" t="inlineStr">
@@ -23420,7 +23420,7 @@
       </c>
       <c r="C658" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Seminar: Models of Religious Pluralism from South Asia </t>
         </is>
       </c>
       <c r="D658" t="inlineStr">
@@ -23455,7 +23455,7 @@
       </c>
       <c r="C659" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Gods of Stone: Monuments and the Sacred </t>
         </is>
       </c>
       <c r="D659" t="inlineStr">
@@ -23490,7 +23490,7 @@
       </c>
       <c r="C660" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Seminar: Law and Community in Muslim Societies </t>
         </is>
       </c>
       <c r="D660" t="inlineStr">
@@ -23525,7 +23525,7 @@
       </c>
       <c r="C661" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Elementary Russian I </t>
         </is>
       </c>
       <c r="D661" t="inlineStr">
@@ -23560,7 +23560,7 @@
       </c>
       <c r="C662" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Intermediate Russian I </t>
         </is>
       </c>
       <c r="D662" t="inlineStr">
@@ -23595,7 +23595,7 @@
       </c>
       <c r="C663" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">The Nineteenth-Century Russian Classics: Passion, Pain, Perfection (in English) </t>
         </is>
       </c>
       <c r="D663" t="inlineStr">
@@ -23630,7 +23630,7 @@
       </c>
       <c r="C664" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Fedor Dostoevsky: The Seer of Spirit (in English) </t>
         </is>
       </c>
       <c r="D664" t="inlineStr">
@@ -23665,7 +23665,7 @@
       </c>
       <c r="C665" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Advanced Russian I: Moscow </t>
         </is>
       </c>
       <c r="D665" t="inlineStr">
@@ -23700,7 +23700,7 @@
       </c>
       <c r="C666" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Nineteenth-Century Russian Narrative Poetry: Tales of Mystery and Adventure (in Russian) </t>
         </is>
       </c>
       <c r="D666" t="inlineStr">
@@ -23735,7 +23735,7 @@
       </c>
       <c r="C667" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Art and Architecture of South Asia </t>
         </is>
       </c>
       <c r="D667" t="inlineStr">
@@ -23770,7 +23770,7 @@
       </c>
       <c r="C668" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Seminar: Models of Religious Pluralism from South Asia </t>
         </is>
       </c>
       <c r="D668" t="inlineStr">
@@ -23805,7 +23805,7 @@
       </c>
       <c r="C669" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Thinking Global: An Introduction to Sociology </t>
         </is>
       </c>
       <c r="D669" t="inlineStr">
@@ -23840,7 +23840,7 @@
       </c>
       <c r="C670" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Deviance and Conformity: An Introduction to Sociology </t>
         </is>
       </c>
       <c r="D670" t="inlineStr">
@@ -23875,7 +23875,7 @@
       </c>
       <c r="C671" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Introduction to Probability and Statistical Methods </t>
         </is>
       </c>
       <c r="D671" t="inlineStr">
@@ -23910,7 +23910,7 @@
       </c>
       <c r="C672" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Introduction to Probability and Statistical Methods </t>
         </is>
       </c>
       <c r="D672" t="inlineStr">
@@ -23945,7 +23945,7 @@
       </c>
       <c r="C673" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Introduction to Probability and Statistical Methods </t>
         </is>
       </c>
       <c r="D673" t="inlineStr">
@@ -23980,7 +23980,7 @@
       </c>
       <c r="C674" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Sociological Theory: A Critical History </t>
         </is>
       </c>
       <c r="D674" t="inlineStr">
@@ -24015,7 +24015,7 @@
       </c>
       <c r="C675" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Schools and Society </t>
         </is>
       </c>
       <c r="D675" t="inlineStr">
@@ -24050,7 +24050,7 @@
       </c>
       <c r="C676" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Social Inequality: Race, Class and Gender </t>
         </is>
       </c>
       <c r="D676" t="inlineStr">
@@ -24085,7 +24085,7 @@
       </c>
       <c r="C677" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Marriage and the Family: Past, Present, and Future </t>
         </is>
       </c>
       <c r="D677" t="inlineStr">
@@ -24120,7 +24120,7 @@
       </c>
       <c r="C678" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Life in the Big City: Urban Studies and Policy </t>
         </is>
       </c>
       <c r="D678" t="inlineStr">
@@ -24155,7 +24155,7 @@
       </c>
       <c r="C679" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Building Community in Theory and Practice </t>
         </is>
       </c>
       <c r="D679" t="inlineStr">
@@ -24190,7 +24190,7 @@
       </c>
       <c r="C680" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Salsa and Ketchup: How immigration is Changing the US and the World </t>
         </is>
       </c>
       <c r="D680" t="inlineStr">
@@ -24225,7 +24225,7 @@
       </c>
       <c r="C681" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Racial Regimes in the United States and Beyond </t>
         </is>
       </c>
       <c r="D681" t="inlineStr">
@@ -24260,7 +24260,7 @@
       </c>
       <c r="C682" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Global Health and Social Epidemiology </t>
         </is>
       </c>
       <c r="D682" t="inlineStr">
@@ -24295,7 +24295,7 @@
       </c>
       <c r="C683" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Punishment </t>
         </is>
       </c>
       <c r="D683" t="inlineStr">
@@ -24330,7 +24330,7 @@
       </c>
       <c r="C684" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Seminar: Contemporary Reproduction </t>
         </is>
       </c>
       <c r="D684" t="inlineStr">
@@ -24365,7 +24365,7 @@
       </c>
       <c r="C685" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Conservatism in America </t>
         </is>
       </c>
       <c r="D685" t="inlineStr">
@@ -24400,7 +24400,7 @@
       </c>
       <c r="C686" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Elementary Spanish </t>
         </is>
       </c>
       <c r="D686" t="inlineStr">
@@ -24435,7 +24435,7 @@
       </c>
       <c r="C687" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Elementary Spanish </t>
         </is>
       </c>
       <c r="D687" t="inlineStr">
@@ -24470,7 +24470,7 @@
       </c>
       <c r="C688" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Elementary Spanish </t>
         </is>
       </c>
       <c r="D688" t="inlineStr">
@@ -24505,7 +24505,7 @@
       </c>
       <c r="C689" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Intermediate Spanish </t>
         </is>
       </c>
       <c r="D689" t="inlineStr">
@@ -24540,7 +24540,7 @@
       </c>
       <c r="C690" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Intermediate Spanish </t>
         </is>
       </c>
       <c r="D690" t="inlineStr">
@@ -24575,7 +24575,7 @@
       </c>
       <c r="C691" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Intermediate Spanish </t>
         </is>
       </c>
       <c r="D691" t="inlineStr">
@@ -24610,7 +24610,7 @@
       </c>
       <c r="C692" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Intermediate Spanish </t>
         </is>
       </c>
       <c r="D692" t="inlineStr">
@@ -24645,7 +24645,7 @@
       </c>
       <c r="C693" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Intermediate Spanish </t>
         </is>
       </c>
       <c r="D693" t="inlineStr">
@@ -24680,7 +24680,7 @@
       </c>
       <c r="C694" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Intermediate Spanish </t>
         </is>
       </c>
       <c r="D694" t="inlineStr">
@@ -24715,7 +24715,7 @@
       </c>
       <c r="C695" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t>Spanish Around the World Tpc: Repression/Revolution &amp; Arts</t>
         </is>
       </c>
       <c r="D695" t="inlineStr">
@@ -24750,7 +24750,7 @@
       </c>
       <c r="C696" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t>Spanish Around the World Tpc: Latin American Culture &amp; Arts</t>
         </is>
       </c>
       <c r="D696" t="inlineStr">
@@ -24785,7 +24785,7 @@
       </c>
       <c r="C697" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t>Spanish Around the World Tpc: Literature, Society and Politics</t>
         </is>
       </c>
       <c r="D697" t="inlineStr">
@@ -24820,7 +24820,7 @@
       </c>
       <c r="C698" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Spanish for Heritage Learners:  Learning Language through Culture </t>
         </is>
       </c>
       <c r="D698" t="inlineStr">
@@ -24855,7 +24855,7 @@
       </c>
       <c r="C699" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Spain in the US: Facing the Past, Imagining the Future </t>
         </is>
       </c>
       <c r="D699" t="inlineStr">
@@ -24890,7 +24890,7 @@
       </c>
       <c r="C700" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Cordoba: City and Myth </t>
         </is>
       </c>
       <c r="D700" t="inlineStr">
@@ -24925,7 +24925,7 @@
       </c>
       <c r="C701" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">The Caribbean Experience: Literature, Culture and History </t>
         </is>
       </c>
       <c r="D701" t="inlineStr">
@@ -24960,7 +24960,7 @@
       </c>
       <c r="C702" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Female Fashion in Colonial Latin America </t>
         </is>
       </c>
       <c r="D702" t="inlineStr">
@@ -24995,7 +24995,7 @@
       </c>
       <c r="C703" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Seminar: Argentine Women Filmmakers </t>
         </is>
       </c>
       <c r="D703" t="inlineStr">
@@ -25030,7 +25030,7 @@
       </c>
       <c r="C704" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Seminar: Asia in Latin America: Literary and Cultural Connections </t>
         </is>
       </c>
       <c r="D704" t="inlineStr">
@@ -25065,7 +25065,7 @@
       </c>
       <c r="C705" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Spain in the US: Facing the Past, Imagining the Future </t>
         </is>
       </c>
       <c r="D705" t="inlineStr">
@@ -25100,7 +25100,7 @@
       </c>
       <c r="C706" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Introduction to Data Literacy: Everyday Applications </t>
         </is>
       </c>
       <c r="D706" t="inlineStr">
@@ -25135,7 +25135,7 @@
       </c>
       <c r="C707" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Fundamentals of Statistics </t>
         </is>
       </c>
       <c r="D707" t="inlineStr">
@@ -25170,7 +25170,7 @@
       </c>
       <c r="C708" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Introductory Statistics and Data Analysis </t>
         </is>
       </c>
       <c r="D708" t="inlineStr">
@@ -25205,7 +25205,7 @@
       </c>
       <c r="C709" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Probability </t>
         </is>
       </c>
       <c r="D709" t="inlineStr">
@@ -25240,7 +25240,7 @@
       </c>
       <c r="C710" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Applied Data Analysis and Statistical Inference </t>
         </is>
       </c>
       <c r="D710" t="inlineStr">
@@ -25275,7 +25275,7 @@
       </c>
       <c r="C711" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Regression Analysis and Statistical Models </t>
         </is>
       </c>
       <c r="D711" t="inlineStr">
@@ -25310,7 +25310,7 @@
       </c>
       <c r="C712" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Speaking Truth to Power </t>
         </is>
       </c>
       <c r="D712" t="inlineStr">
@@ -25345,7 +25345,7 @@
       </c>
       <c r="C713" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">That's What She Said: Trailblazing Women of American Comedy </t>
         </is>
       </c>
       <c r="D713" t="inlineStr">
@@ -25380,7 +25380,7 @@
       </c>
       <c r="C714" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Acting l: Achieving Authenticity </t>
         </is>
       </c>
       <c r="D714" t="inlineStr">
@@ -25415,7 +25415,7 @@
       </c>
       <c r="C715" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Acting l: Achieving Authenticity </t>
         </is>
       </c>
       <c r="D715" t="inlineStr">
@@ -25450,7 +25450,7 @@
       </c>
       <c r="C716" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Stagecraft for Performance </t>
         </is>
       </c>
       <c r="D716" t="inlineStr">
@@ -25485,7 +25485,7 @@
       </c>
       <c r="C717" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Scenic Design as a Collaborative Art </t>
         </is>
       </c>
       <c r="D717" t="inlineStr">
@@ -25520,7 +25520,7 @@
       </c>
       <c r="C718" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">The Art of Playwriting </t>
         </is>
       </c>
       <c r="D718" t="inlineStr">
@@ -25555,7 +25555,7 @@
       </c>
       <c r="C719" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Japanese Literature from Myth to Manga (in English) </t>
         </is>
       </c>
       <c r="D719" t="inlineStr">
@@ -25590,7 +25590,7 @@
       </c>
       <c r="C720" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">The Advanced Art of Playwriting </t>
         </is>
       </c>
       <c r="D720" t="inlineStr">
@@ -25625,7 +25625,7 @@
       </c>
       <c r="C721" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Practicum: Theatre Production </t>
         </is>
       </c>
       <c r="D721" t="inlineStr">
@@ -25660,7 +25660,7 @@
       </c>
       <c r="C722" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">First-Year Seminar: Lessons of Childhood: Representations of Difference in Children's Media </t>
         </is>
       </c>
       <c r="D722" t="inlineStr">
@@ -25695,7 +25695,7 @@
       </c>
       <c r="C723" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Introduction to Women's and Gender Studies </t>
         </is>
       </c>
       <c r="D723" t="inlineStr">
@@ -25730,7 +25730,7 @@
       </c>
       <c r="C724" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Introduction to Women's and Gender Studies </t>
         </is>
       </c>
       <c r="D724" t="inlineStr">
@@ -25765,7 +25765,7 @@
       </c>
       <c r="C725" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Introduction to Women's and Gender Studies </t>
         </is>
       </c>
       <c r="D725" t="inlineStr">
@@ -25800,7 +25800,7 @@
       </c>
       <c r="C726" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Gender, Race, and the Carceral State </t>
         </is>
       </c>
       <c r="D726" t="inlineStr">
@@ -25835,7 +25835,7 @@
       </c>
       <c r="C727" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Gendering the Bronze Screen: Representations of Chicanas/Latinas in Film </t>
         </is>
       </c>
       <c r="D727" t="inlineStr">
@@ -25870,7 +25870,7 @@
       </c>
       <c r="C728" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Gender and Technologies </t>
         </is>
       </c>
       <c r="D728" t="inlineStr">
@@ -25905,7 +25905,7 @@
       </c>
       <c r="C729" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">U.S. Public Health </t>
         </is>
       </c>
       <c r="D729" t="inlineStr">
@@ -25940,7 +25940,7 @@
       </c>
       <c r="C730" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Romance Films and Feminist Theories </t>
         </is>
       </c>
       <c r="D730" t="inlineStr">
@@ -25975,7 +25975,7 @@
       </c>
       <c r="C731" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Gender and Race in Westerns: Rainbow Cowboys (and Girls) </t>
         </is>
       </c>
       <c r="D731" t="inlineStr">
@@ -26010,7 +26010,7 @@
       </c>
       <c r="C732" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">U.S. Women of Color &amp; Economic Inequality </t>
         </is>
       </c>
       <c r="D732" t="inlineStr">
@@ -26045,7 +26045,7 @@
       </c>
       <c r="C733" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Seminar: Representations of Women, Natives, and "Others" </t>
         </is>
       </c>
       <c r="D733" t="inlineStr">
@@ -26080,7 +26080,7 @@
       </c>
       <c r="C734" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Seminar: Contemporary Reproduction </t>
         </is>
       </c>
       <c r="D734" t="inlineStr">
@@ -26115,7 +26115,7 @@
       </c>
       <c r="C735" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Asian Feminisms </t>
         </is>
       </c>
       <c r="D735" t="inlineStr">
@@ -26150,7 +26150,7 @@
       </c>
       <c r="C736" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">ARTH 100 The Power of Images: An Introduction to Art and its Histories </t>
         </is>
       </c>
       <c r="D736" t="inlineStr">
@@ -26185,7 +26185,7 @@
       </c>
       <c r="C737" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Writing in the Distracted Age </t>
         </is>
       </c>
       <c r="D737" t="inlineStr">
@@ -26220,7 +26220,7 @@
       </c>
       <c r="C738" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Protest Songs </t>
         </is>
       </c>
       <c r="D738" t="inlineStr">
@@ -26255,7 +26255,7 @@
       </c>
       <c r="C739" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Critical Interpretation </t>
         </is>
       </c>
       <c r="D739" t="inlineStr">
@@ -26290,7 +26290,7 @@
       </c>
       <c r="C740" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Wellesley and the World </t>
         </is>
       </c>
       <c r="D740" t="inlineStr">
@@ -26325,7 +26325,7 @@
       </c>
       <c r="C741" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">The Successful Life </t>
         </is>
       </c>
       <c r="D741" t="inlineStr">
@@ -26360,7 +26360,7 @@
       </c>
       <c r="C742" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">The Successful Life </t>
         </is>
       </c>
       <c r="D742" t="inlineStr">
@@ -26395,7 +26395,7 @@
       </c>
       <c r="C743" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Writing for Change: Protest Literature in America </t>
         </is>
       </c>
       <c r="D743" t="inlineStr">
@@ -26430,7 +26430,7 @@
       </c>
       <c r="C744" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Writing for Change: Protest Literature in America </t>
         </is>
       </c>
       <c r="D744" t="inlineStr">
@@ -26465,7 +26465,7 @@
       </c>
       <c r="C745" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Are We What We Eat? Writing About Food and Culture </t>
         </is>
       </c>
       <c r="D745" t="inlineStr">
@@ -26500,7 +26500,7 @@
       </c>
       <c r="C746" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">What is College For? </t>
         </is>
       </c>
       <c r="D746" t="inlineStr">
@@ -26535,7 +26535,7 @@
       </c>
       <c r="C747" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">What is College For? </t>
         </is>
       </c>
       <c r="D747" t="inlineStr">
@@ -26570,7 +26570,7 @@
       </c>
       <c r="C748" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Sex in the Middle Ages </t>
         </is>
       </c>
       <c r="D748" t="inlineStr">
@@ -26605,7 +26605,7 @@
       </c>
       <c r="C749" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Art and Activism in Latin America </t>
         </is>
       </c>
       <c r="D749" t="inlineStr">
@@ -26640,7 +26640,7 @@
       </c>
       <c r="C750" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Hidden Worlds: Desert Islands, Ghost Towns, Invisible Cities, and Writing about Place </t>
         </is>
       </c>
       <c r="D750" t="inlineStr">
@@ -26675,7 +26675,7 @@
       </c>
       <c r="C751" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Wealth and Poverty in America: An Economist's Perspective </t>
         </is>
       </c>
       <c r="D751" t="inlineStr">
@@ -26710,7 +26710,7 @@
       </c>
       <c r="C752" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Faked Out: Hoaxes and Conspiracies </t>
         </is>
       </c>
       <c r="D752" t="inlineStr">
@@ -26745,7 +26745,7 @@
       </c>
       <c r="C753" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Dream Narratives </t>
         </is>
       </c>
       <c r="D753" t="inlineStr">
@@ -26780,7 +26780,7 @@
       </c>
       <c r="C754" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">The Fiction of Edith Wharton </t>
         </is>
       </c>
       <c r="D754" t="inlineStr">
@@ -26815,7 +26815,7 @@
       </c>
       <c r="C755" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">What's Old is New: Classics and Modern Social Movements </t>
         </is>
       </c>
       <c r="D755" t="inlineStr">
@@ -26850,7 +26850,7 @@
       </c>
       <c r="C756" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Making It Real in the Documentary Film </t>
         </is>
       </c>
       <c r="D756" t="inlineStr">
@@ -26885,7 +26885,7 @@
       </c>
       <c r="C757" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Intensive Writing Workshop </t>
         </is>
       </c>
       <c r="D757" t="inlineStr">
@@ -26920,7 +26920,7 @@
       </c>
       <c r="C758" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">True Stories: Ethnographic Writing for the Social Sciences and Humanities </t>
         </is>
       </c>
       <c r="D758" t="inlineStr">
@@ -26955,7 +26955,7 @@
       </c>
       <c r="C759" t="inlineStr">
         <is>
-          <t xml:space="preserve">Introduction to the Black Experience </t>
+          <t xml:space="preserve">Advanced Writing Seminar </t>
         </is>
       </c>
       <c r="D759" t="inlineStr">
